--- a/datasets/GC_sula/sula_filedata.xlsx
+++ b/datasets/GC_sula/sula_filedata.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\spica\workspace4\fujii\work\ABM\datasets\GC_sula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B99F89-9C53-4AC5-A8EC-369844F95211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928F119E-0291-4C6F-922F-329012F1A6D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33615" yWindow="2340" windowWidth="10530" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filedata" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>filename</t>
     <phoneticPr fontId="18"/>
@@ -67,6 +68,28 @@
   </si>
   <si>
     <t>hours</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>length_m</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>length_sd</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>fileNo</t>
+  </si>
+  <si>
+    <t>length</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -660,8 +683,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1169,4 +1198,341 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59778DF-0167-4F6A-801E-64ECCE6834BD}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C63" sqref="C62:C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>12.0075</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <f>AVERAGE(F2:F3)</f>
+        <v>187</v>
+      </c>
+      <c r="D2" s="2">
+        <f>STDEV(F2:F3)</f>
+        <v>73.53910524340094</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>11.925000000000001</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>AVERAGE(F4:F5)</f>
+        <v>487</v>
+      </c>
+      <c r="D3" s="2">
+        <f>STDEV(F4:F5)</f>
+        <v>118.79393923933998</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>11.922777777777778</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <f>AVERAGE(F6:F12)</f>
+        <v>256.28571428571428</v>
+      </c>
+      <c r="D4" s="2">
+        <f>STDEV(F6:F12)</f>
+        <v>135.83042649533559</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>11.780555555555555</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <f>AVERAGE(F13:F24)</f>
+        <v>452.33333333333331</v>
+      </c>
+      <c r="D6" s="2">
+        <f>STDEV(F13:F24)</f>
+        <v>362.67524499658549</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>11.866666666666667</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <f>AVERAGE(F25:F26)</f>
+        <v>310</v>
+      </c>
+      <c r="D7" s="2">
+        <f>STDEV(F25:F26)</f>
+        <v>103.23759005323593</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <f>AVERAGE(A2:A7)</f>
+        <v>11.917083333333332</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVERAGE(F2:F26)</f>
+        <v>367.6</v>
+      </c>
+      <c r="D9" s="2">
+        <f>STDEV(F2:F26)</f>
+        <v>278.46439030272194</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <f>STDEV(A2:A7)</f>
+        <v>8.5237458800201699E-2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>